--- a/admin/importdatamaster.xlsx
+++ b/admin/importdatamaster.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="522">
   <si>
     <t>ID</t>
   </si>
@@ -1635,6 +1635,12 @@
   </si>
   <si>
     <t>siswa.png</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>SR01</t>
   </si>
 </sst>
 </file>
@@ -1803,16 +1809,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1821,7 +1827,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10363200" y="104775"/>
+          <a:off x="11020425" y="95250"/>
           <a:ext cx="1781175" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2156,7 +2162,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2164,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2190,7 @@
     <col min="11" max="11" width="13.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2221,8 +2227,11 @@
       <c r="L1" s="15" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2259,8 +2268,11 @@
       <c r="L2" s="3" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2294,8 +2306,11 @@
       <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2329,8 +2344,11 @@
       <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2364,8 +2382,11 @@
       <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2399,8 +2420,11 @@
       <c r="K6" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2434,8 +2458,11 @@
       <c r="K7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2469,8 +2496,11 @@
       <c r="K8" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2504,8 +2534,11 @@
       <c r="K9" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2539,8 +2572,11 @@
       <c r="K10" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2574,8 +2610,11 @@
       <c r="K11" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2609,8 +2648,11 @@
       <c r="K12" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2644,8 +2686,11 @@
       <c r="K13" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2679,8 +2724,11 @@
       <c r="K14" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2714,8 +2762,11 @@
       <c r="K15" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2749,8 +2800,11 @@
       <c r="K16" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2784,8 +2838,11 @@
       <c r="K17" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2819,8 +2876,11 @@
       <c r="K18" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2854,8 +2914,11 @@
       <c r="K19" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2889,8 +2952,11 @@
       <c r="K20" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2924,8 +2990,11 @@
       <c r="K21" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2959,8 +3028,11 @@
       <c r="K22" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2994,8 +3066,11 @@
       <c r="K23" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3029,8 +3104,11 @@
       <c r="K24" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3064,8 +3142,11 @@
       <c r="K25" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3099,8 +3180,11 @@
       <c r="K26" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3134,8 +3218,11 @@
       <c r="K27" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3169,8 +3256,11 @@
       <c r="K28" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3204,8 +3294,11 @@
       <c r="K29" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M29" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3239,8 +3332,11 @@
       <c r="K30" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3274,8 +3370,11 @@
       <c r="K31" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3309,8 +3408,11 @@
       <c r="K32" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3344,8 +3446,11 @@
       <c r="K33" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3379,8 +3484,11 @@
       <c r="K34" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3414,8 +3522,11 @@
       <c r="K35" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3449,8 +3560,11 @@
       <c r="K36" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3484,8 +3598,11 @@
       <c r="K37" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3519,8 +3636,11 @@
       <c r="K38" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M38" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3554,8 +3674,11 @@
       <c r="K39" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3589,8 +3712,11 @@
       <c r="K40" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M40" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3624,8 +3750,11 @@
       <c r="K41" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M41" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3659,8 +3788,11 @@
       <c r="K42" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3694,8 +3826,11 @@
       <c r="K43" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3729,8 +3864,11 @@
       <c r="K44" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M44" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3764,8 +3902,11 @@
       <c r="K45" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3799,8 +3940,11 @@
       <c r="K46" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M46" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3834,8 +3978,11 @@
       <c r="K47" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M47" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3869,8 +4016,11 @@
       <c r="K48" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M48" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3904,8 +4054,11 @@
       <c r="K49" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M49" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3939,8 +4092,11 @@
       <c r="K50" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M50" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3974,8 +4130,11 @@
       <c r="K51" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M51" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4009,8 +4168,11 @@
       <c r="K52" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M52" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4044,8 +4206,11 @@
       <c r="K53" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M53" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4079,8 +4244,11 @@
       <c r="K54" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M54" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4114,8 +4282,11 @@
       <c r="K55" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M55" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4149,8 +4320,11 @@
       <c r="K56" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M56" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4184,8 +4358,11 @@
       <c r="K57" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M57" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4219,8 +4396,11 @@
       <c r="K58" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M58" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4254,8 +4434,11 @@
       <c r="K59" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M59" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4289,8 +4472,11 @@
       <c r="K60" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M60" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4324,8 +4510,11 @@
       <c r="K61" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M61" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4359,8 +4548,11 @@
       <c r="K62" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M62" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4394,8 +4586,11 @@
       <c r="K63" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M63" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4429,8 +4624,11 @@
       <c r="K64" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M64" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4464,8 +4662,11 @@
       <c r="K65" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M65" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4499,8 +4700,11 @@
       <c r="K66" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M66" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4534,8 +4738,11 @@
       <c r="K67" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M67" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4569,8 +4776,11 @@
       <c r="K68" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M68" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4604,8 +4814,11 @@
       <c r="K69" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M69" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4639,8 +4852,11 @@
       <c r="K70" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M70" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4674,8 +4890,11 @@
       <c r="K71" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M71" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4709,8 +4928,11 @@
       <c r="K72" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M72" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4744,8 +4966,11 @@
       <c r="K73" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M73" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4779,8 +5004,11 @@
       <c r="K74" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M74" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4814,8 +5042,11 @@
       <c r="K75" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M75" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4849,8 +5080,11 @@
       <c r="K76" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M76" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4884,8 +5118,11 @@
       <c r="K77" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M77" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4919,8 +5156,11 @@
       <c r="K78" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M78" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4954,8 +5194,11 @@
       <c r="K79" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M79" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4989,8 +5232,11 @@
       <c r="K80" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M80" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -5024,8 +5270,11 @@
       <c r="K81" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M81" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -5059,8 +5308,11 @@
       <c r="K82" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M82" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -5094,8 +5346,11 @@
       <c r="K83" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M83" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -5129,8 +5384,11 @@
       <c r="K84" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M84" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -5164,8 +5422,11 @@
       <c r="K85" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M85" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -5199,8 +5460,11 @@
       <c r="K86" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M86" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -5234,8 +5498,11 @@
       <c r="K87" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M87" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -5269,8 +5536,11 @@
       <c r="K88" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M88" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -5304,8 +5574,11 @@
       <c r="K89" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M89" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -5339,8 +5612,11 @@
       <c r="K90" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M90" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -5374,8 +5650,11 @@
       <c r="K91" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M91" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -5409,8 +5688,11 @@
       <c r="K92" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M92" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -5444,8 +5726,11 @@
       <c r="K93" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M93" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -5479,8 +5764,11 @@
       <c r="K94" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M94" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -5514,8 +5802,11 @@
       <c r="K95" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M95" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -5549,8 +5840,11 @@
       <c r="K96" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M96" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -5584,8 +5878,11 @@
       <c r="K97" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M97" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -5619,8 +5916,11 @@
       <c r="K98" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M98" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -5654,8 +5954,11 @@
       <c r="K99" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M99" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -5689,8 +5992,11 @@
       <c r="K100" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M100" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -5724,8 +6030,11 @@
       <c r="K101" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M101" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -5759,8 +6068,11 @@
       <c r="K102" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M102" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -5794,8 +6106,11 @@
       <c r="K103" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M103" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -5829,8 +6144,11 @@
       <c r="K104" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M104" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -5864,8 +6182,11 @@
       <c r="K105" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M105" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -5899,8 +6220,11 @@
       <c r="K106" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M106" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -5934,8 +6258,11 @@
       <c r="K107" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M107" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -5969,8 +6296,11 @@
       <c r="K108" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M108" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -6004,8 +6334,11 @@
       <c r="K109" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M109" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -6039,8 +6372,11 @@
       <c r="K110" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M110" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -6074,8 +6410,11 @@
       <c r="K111" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M111" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -6109,8 +6448,11 @@
       <c r="K112" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M112" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -6144,8 +6486,11 @@
       <c r="K113" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M113" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -6179,8 +6524,11 @@
       <c r="K114" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M114" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -6214,8 +6562,11 @@
       <c r="K115" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M115" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -6249,8 +6600,11 @@
       <c r="K116" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M116" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -6284,8 +6638,11 @@
       <c r="K117" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M117" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -6319,8 +6676,11 @@
       <c r="K118" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M118" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -6354,8 +6714,11 @@
       <c r="K119" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M119" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -6389,8 +6752,11 @@
       <c r="K120" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M120" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -6424,8 +6790,11 @@
       <c r="K121" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M121" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -6459,8 +6828,11 @@
       <c r="K122" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M122" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -6494,8 +6866,11 @@
       <c r="K123" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M123" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -6529,8 +6904,11 @@
       <c r="K124" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M124" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -6564,8 +6942,11 @@
       <c r="K125" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M125" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -6598,6 +6979,9 @@
       </c>
       <c r="K126" s="4" t="s">
         <v>263</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
